--- a/metadata/B1987P195BioLS_metadata.xlsx
+++ b/metadata/B1987P195BioLS_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentsecuedu66932-my.sharepoint.com/personal/schlenkerl20_ecu_edu/Documents/ECU/2 NC Fisheries/Indicators/P195/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lelaschlenker/ECU/2 NC Fisheries/Indicators/P195/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{D57A87C1-985E-D94A-8369-AF3C013138BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EFEA67D-79A7-574B-BA53-128583BB1C1E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2CC815-5EC6-984B-A55A-B10969DDEF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33200" yWindow="1820" windowWidth="29180" windowHeight="20960" xr2:uid="{FF48C60C-92B8-CF42-8F11-1FCDEDF83DDC}"/>
+    <workbookView xWindow="33200" yWindow="640" windowWidth="29180" windowHeight="20960" xr2:uid="{FF48C60C-92B8-CF42-8F11-1FCDEDF83DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>SEAMAP-SA Data Management Work Group . Year, Month, Day. SEAMAP-SA online database. Retrieved from: http://www.dnr.sc.gov/SEAMAP/data.html by: "individual X".</t>
-  </si>
-  <si>
     <t>http://www.seamap.org/datapage.html</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
     <t>NC DMF P195 Biological Indicators</t>
   </si>
   <si>
-    <t>Summer and Fall: CPUE (catch per unit effort), MPUE (biomass per unit effort), Species Richness, DtoPBioMRatio (demersal to pelagic biomass ratio), shannon wiener diversity index</t>
-  </si>
-  <si>
     <t>1987-2021</t>
   </si>
   <si>
@@ -120,6 +114,12 @@
   </si>
   <si>
     <t>Jellies and plants and anthing "suspicious" filtered out, some species grouped (blennies and gobbies) based on discussions with Jim about potential for misidentification</t>
+  </si>
+  <si>
+    <t>SEAMAP-SA Data Management Work Group . 2022, November, 1. SEAMAP-SA online database. Retrieved from: http://www.dnr.sc.gov/SEAMAP/data.html by: Lela Schlenker.</t>
+  </si>
+  <si>
+    <t>Summer and Fall: CPUE (catch per unit effort), MPUE (biomass per unit effort), CrabCPUE (catch per unit effort of macroinvertebrates), CrabMPUE (biomass per unit effort of macroinvertebrates), FishCPUE (catch per unit effort of finfish), FishMPUE (biomass per unit effort of finfish),  Species Richness, DtoPBioMRatio (demersal to pelagic biomass ratio), shannon wiener diversity index, NonShrimpInvertCPUE (catch per unit effort of non-shrimp macroinvertebrates)</t>
   </si>
 </sst>
 </file>
@@ -213,14 +213,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -258,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -364,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -506,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -517,7 +513,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0.2"/>
@@ -532,7 +528,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -540,7 +536,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -580,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -588,7 +584,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,7 +600,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -612,7 +608,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -628,7 +624,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
